--- a/backend/static/extracted_data.xlsx
+++ b/backend/static/extracted_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,17 +424,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>File Name</t>
+          <t>文件名</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Page Number</t>
+          <t>总页数</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Extracted Text</t>
+          <t>发票编号</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>开票日期</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>购买方</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>购买方税号</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>总价</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>税额</t>
         </is>
       </c>
     </row>
@@ -449,22 +479,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OCR识别失败</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2320.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>OCR识别失败</t>
+          <t>24332000000354220933</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024年10月09日</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>莆田学院</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>９1330103MA2HYHRA1E</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7599.01</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>75.99</t>
         </is>
       </c>
     </row>
